--- a/FengTienPro/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/FengTienPro/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -1,13 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\FengTienPro\FengTienVR\FengTienPro\Assets\Resources\ExcelFiles\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03711EA9-E7F3-4D0C-8A09-6B508BD27740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="muitiLang" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="trainFeed" sheetId="2" r:id="rId5"/>
+    <sheet name="muitiLang" sheetId="1" r:id="rId1"/>
+    <sheet name="trainFeed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7misnM0AErddeftIyv5/AZ7yUnQmKQ=="/>
@@ -17,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
   <si>
     <t>id</t>
   </si>
@@ -539,73 +548,313 @@
   </si>
   <si>
     <t>pourinwater</t>
+  </si>
+  <si>
+    <t>feed_btnone</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_btntwo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_btnthree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_btnfour</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_btnfive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_btnzeore</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿公，吃飯了</t>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿公，吃飯了</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿公，吃一口看看會不會太燙？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>阿公，吃一口看看會不會太燙？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>味道還可以嗎？</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢慢吃喔，不要急。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢慢吞</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>再多吃一點才健康。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>再多吃一點才健康。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>慢慢吞</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>慢慢吃喔，不要急。</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>味道還可以嗎？</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟阿公說說話吧！
+(依照順序填入)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>跟阿公說說話吧！</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>依照順序填入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>feed_top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="PMingLiu"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -795,26 +1044,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.63"/>
-    <col customWidth="1" min="2" max="2" width="41.13"/>
-    <col customWidth="1" min="3" max="3" width="45.0"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="2" max="2" width="41.125" customWidth="1"/>
+    <col min="3" max="3" width="45" customWidth="1"/>
+    <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -825,7 +1076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -836,7 +1087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,7 +1098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -858,7 +1109,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -869,7 +1120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -880,7 +1131,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -891,7 +1142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -902,7 +1153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -913,7 +1164,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -924,7 +1175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>30</v>
       </c>
@@ -935,7 +1186,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>33</v>
       </c>
@@ -946,7 +1197,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
@@ -957,7 +1208,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>39</v>
       </c>
@@ -968,7 +1219,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>42</v>
       </c>
@@ -979,7 +1230,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -990,7 +1241,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -1001,7 +1252,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -1012,7 +1263,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -1023,7 +1274,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1034,7 +1285,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -1045,7 +1296,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -1056,7 +1307,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -1067,7 +1318,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -1078,7 +1329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -1089,7 +1340,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1100,7 +1351,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>78</v>
       </c>
@@ -1111,7 +1362,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>81</v>
       </c>
@@ -1122,7 +1373,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>84</v>
       </c>
@@ -1133,7 +1384,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1144,7 +1395,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>90</v>
       </c>
@@ -1155,7 +1406,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>93</v>
       </c>
@@ -1166,7 +1417,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>96</v>
       </c>
@@ -1177,7 +1428,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -1188,7 +1439,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>102</v>
       </c>
@@ -1199,7 +1450,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>105</v>
       </c>
@@ -1210,7 +1461,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>108</v>
       </c>
@@ -1221,7 +1472,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>111</v>
       </c>
@@ -1232,7 +1483,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>114</v>
       </c>
@@ -1243,15 +1494,85 @@
         <v>116</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A43" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A45" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="31.5" customHeight="1">
+      <c r="A46" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
     <row r="51" ht="15.75" customHeight="1"/>
@@ -1305,30 +1626,27 @@
     <row r="99" ht="15.75" customHeight="1"/>
     <row r="100" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="11.0"/>
-    <col customWidth="1" min="3" max="3" width="24.63"/>
-    <col customWidth="1" min="4" max="26" width="7.63"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="24.625" customWidth="1"/>
+    <col min="4" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>117</v>
       </c>
@@ -1339,9 +1657,9 @@
         <v>119</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1">
       <c r="A2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>120</v>
@@ -1350,9 +1668,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1">
       <c r="A3" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>120</v>
@@ -1361,9 +1679,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1">
       <c r="A4" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>123</v>
@@ -1372,9 +1690,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1">
       <c r="A5" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>123</v>
@@ -1383,9 +1701,9 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
       <c r="A6" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>123</v>
@@ -1394,9 +1712,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
       <c r="A7" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>123</v>
@@ -1405,9 +1723,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1">
       <c r="A8" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>123</v>
@@ -1416,9 +1734,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1">
       <c r="A9" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>123</v>
@@ -1427,9 +1745,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1">
       <c r="A10" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>123</v>
@@ -1438,9 +1756,9 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1">
       <c r="A11" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>123</v>
@@ -1449,9 +1767,9 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1">
       <c r="A12" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>123</v>
@@ -1460,9 +1778,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1">
       <c r="A13" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>130</v>
@@ -1471,9 +1789,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1">
       <c r="A14" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>130</v>
@@ -1482,9 +1800,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1">
       <c r="A15" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>130</v>
@@ -1493,9 +1811,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1">
       <c r="A16" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>134</v>
@@ -1504,9 +1822,9 @@
         <v>135</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1">
       <c r="A17" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>134</v>
@@ -1515,9 +1833,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
       <c r="A18" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>137</v>
@@ -1526,9 +1844,9 @@
         <v>138</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>139</v>
@@ -1537,9 +1855,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>139</v>
@@ -1548,9 +1866,9 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>139</v>
@@ -1559,9 +1877,9 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>139</v>
@@ -1570,9 +1888,9 @@
         <v>142</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>139</v>
@@ -1581,9 +1899,9 @@
         <v>143</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>139</v>
@@ -1592,9 +1910,9 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>139</v>
@@ -1603,9 +1921,9 @@
         <v>145</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>139</v>
@@ -1614,9 +1932,9 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>139</v>
@@ -1625,9 +1943,9 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>139</v>
@@ -1636,9 +1954,9 @@
         <v>148</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" s="1">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>139</v>
@@ -1647,9 +1965,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" s="1">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>139</v>
@@ -1658,9 +1976,9 @@
         <v>150</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" s="1">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>139</v>
@@ -1669,9 +1987,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" s="1">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>152</v>
@@ -1680,9 +1998,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
       <c r="A33" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>152</v>
@@ -1691,9 +2009,9 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
       <c r="A34" s="1">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>152</v>
@@ -1702,9 +2020,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
       <c r="A35" s="1">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>152</v>
@@ -1713,9 +2031,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="1">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>155</v>
@@ -1724,9 +2042,9 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1">
       <c r="A37" s="1">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>155</v>
@@ -1735,9 +2053,9 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>155</v>
@@ -1746,9 +2064,9 @@
         <v>156</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="1">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>155</v>
@@ -1757,9 +2075,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="1">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>155</v>
@@ -1768,9 +2086,9 @@
         <v>158</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="1">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>155</v>
@@ -1779,9 +2097,9 @@
         <v>159</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="1">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>155</v>
@@ -1790,9 +2108,9 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="1">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>155</v>
@@ -1801,9 +2119,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="1">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>155</v>
@@ -1812,9 +2130,9 @@
         <v>149</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="1">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>155</v>
@@ -1823,9 +2141,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1">
       <c r="A46" s="1">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>155</v>
@@ -1834,9 +2152,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
       <c r="A47" s="1">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>155</v>
@@ -1845,9 +2163,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
       <c r="A48" s="1">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>155</v>
@@ -1856,9 +2174,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
       <c r="A49" s="1">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>155</v>
@@ -1867,9 +2185,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
       <c r="A50" s="1">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>155</v>
@@ -1878,9 +2196,9 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
       <c r="A51" s="1">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>155</v>
@@ -1889,9 +2207,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
       <c r="A52" s="1">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>155</v>
@@ -1900,9 +2218,9 @@
         <v>168</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
       <c r="A53" s="1">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>155</v>
@@ -1911,9 +2229,9 @@
         <v>169</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
       <c r="A54" s="1">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>155</v>
@@ -1922,9 +2240,9 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
       <c r="A55" s="1">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>155</v>
@@ -1933,9 +2251,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
       <c r="A56" s="1">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>155</v>
@@ -1944,9 +2262,9 @@
         <v>163</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
       <c r="A57" s="1">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>155</v>
@@ -1955,9 +2273,9 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
       <c r="A58" s="1">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>155</v>
@@ -1966,9 +2284,9 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
       <c r="A59" s="1">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>155</v>
@@ -1977,9 +2295,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
       <c r="A60" s="1">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>155</v>
@@ -1988,9 +2306,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
       <c r="A61" s="1">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>155</v>
@@ -1999,9 +2317,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
       <c r="A62" s="1">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>155</v>
@@ -2010,9 +2328,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
       <c r="A63" s="1">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>155</v>
@@ -2021,9 +2339,9 @@
         <v>161</v>
       </c>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
       <c r="A64" s="1">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>155</v>
@@ -2032,9 +2350,9 @@
         <v>171</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
       <c r="A65" s="1">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>155</v>
@@ -2043,9 +2361,9 @@
         <v>166</v>
       </c>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
       <c r="A66" s="1">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>155</v>
@@ -2054,9 +2372,9 @@
         <v>172</v>
       </c>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
       <c r="A67" s="1">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>155</v>
@@ -2065,9 +2383,9 @@
         <v>162</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
       <c r="A68" s="1">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>155</v>
@@ -2076,9 +2394,9 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
       <c r="A69" s="1">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>155</v>
@@ -2087,31 +2405,31 @@
         <v>166</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
       <c r="A70" s="1">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
       <c r="A71" s="1">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="81" ht="15.75" customHeight="1"/>
     <row r="82" ht="15.75" customHeight="1"/>
     <row r="83" ht="15.75" customHeight="1"/>
@@ -3033,9 +3351,8 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/FengTienPro/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/FengTienPro/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\FengTienPro\FengTienVR\FengTienPro\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03711EA9-E7F3-4D0C-8A09-6B508BD27740}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EC1D2-78EC-445C-BBB6-7DDE45A0D8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="198">
   <si>
     <t>id</t>
   </si>
@@ -172,18 +172,12 @@
     <t>Tips:</t>
   </si>
   <si>
-    <t>player_hintcanv_backhome</t>
-  </si>
-  <si>
     <t>回到主畫面?</t>
   </si>
   <si>
     <t>Back to main menu?</t>
   </si>
   <si>
-    <t>common_confirm</t>
-  </si>
-  <si>
     <t>確認</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>Train</t>
   </si>
   <si>
-    <t>gamemode_exam</t>
-  </si>
-  <si>
     <t>考 試</t>
   </si>
   <si>
@@ -280,63 +271,42 @@
     <t>Wrist</t>
   </si>
   <si>
-    <t>talk_correctAnsOne</t>
-  </si>
-  <si>
     <t>阿公，等一下要吃飯了</t>
   </si>
   <si>
     <t>(en)阿公，等一下要吃飯了</t>
   </si>
   <si>
-    <t>talk_correctAnsTwo</t>
-  </si>
-  <si>
     <t>你今天想吃什麼呢?</t>
   </si>
   <si>
     <t>(en)你今天想吃什麼呢?</t>
   </si>
   <si>
-    <t>talk_correctAnsThree</t>
-  </si>
-  <si>
     <t>我等一下煮鹹稀飯給您吃</t>
   </si>
   <si>
     <t>(en)我等一下煮鹹稀飯給您吃</t>
   </si>
   <si>
-    <t>talk_correctAnsFour</t>
-  </si>
-  <si>
     <t>因為你有高血壓，所以我會放少點鹽</t>
   </si>
   <si>
     <t>(en)因為你有高血壓，所以我會放少點鹽</t>
   </si>
   <si>
-    <t>talk_correctAnsFive</t>
-  </si>
-  <si>
     <t>請等我一下</t>
   </si>
   <si>
     <t>(en)請等我一下</t>
   </si>
   <si>
-    <t>talk_Top</t>
-  </si>
-  <si>
     <t>請排序正確對話</t>
   </si>
   <si>
     <t>(en)請排序正確對話</t>
   </si>
   <si>
-    <t>talk_Black</t>
-  </si>
-  <si>
     <t>公：我想吃鹹稀飯。</t>
   </si>
   <si>
@@ -350,9 +320,6 @@
   </si>
   <si>
     <t>(en)備餐餵食及協助用藥</t>
-  </si>
-  <si>
-    <t>score_subtitle</t>
   </si>
   <si>
     <t>扣分項目</t>
@@ -736,12 +703,68 @@
     <t>feed_top</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>score_subtitle</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>gamemode_exam</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_correctAnsOne</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_correctAnsTwo</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_correctAnsThree</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_correctAnsFour</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_correctAnsFive</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_Top</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>talk_Black</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>common_confirm</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任務完成</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mission Completed</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>player_hintcanv_backhome</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>hint_text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -800,6 +823,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -821,7 +850,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -836,6 +865,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1053,8 +1083,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1242,336 +1272,346 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A18" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A21" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A29" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="1" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A30" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="2" t="s">
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A31" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C31" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="1" t="s">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A32" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A33" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="2" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A34" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C34" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A35" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>108</v>
+      <c r="A37" s="5" t="s">
+        <v>184</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
       <c r="A38" s="3" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
       <c r="A39" s="3" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
       <c r="A40" s="5" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
       <c r="A41" s="5" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
       <c r="A42" s="5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
       <c r="A43" s="5" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
       <c r="A44" s="5" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="31.5" customHeight="1">
       <c r="A46" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A47" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="C46" s="9" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1"/>
+      <c r="C47" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="49" ht="15.75" customHeight="1"/>
     <row r="50" ht="15.75" customHeight="1"/>
@@ -1648,13 +1688,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1">
@@ -1662,10 +1702,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1">
@@ -1673,10 +1713,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" customHeight="1">
@@ -1684,10 +1724,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1">
@@ -1695,10 +1735,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" customHeight="1">
@@ -1706,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" customHeight="1">
@@ -1717,10 +1757,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" customHeight="1">
@@ -1728,10 +1768,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1">
@@ -1739,10 +1779,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1">
@@ -1750,10 +1790,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" customHeight="1">
@@ -1761,10 +1801,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" customHeight="1">
@@ -1772,10 +1812,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" customHeight="1">
@@ -1783,10 +1823,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" customHeight="1">
@@ -1794,10 +1834,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1">
@@ -1805,10 +1845,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1">
@@ -1816,10 +1856,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1">
@@ -1827,10 +1867,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1">
@@ -1838,10 +1878,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1">
@@ -1849,10 +1889,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1">
@@ -1860,10 +1900,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
@@ -1871,10 +1911,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
@@ -1882,10 +1922,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
@@ -1893,10 +1933,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
@@ -1904,10 +1944,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
@@ -1915,10 +1955,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
@@ -1926,10 +1966,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
@@ -1937,10 +1977,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
@@ -1948,10 +1988,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
@@ -1959,10 +1999,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
@@ -1970,10 +2010,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
@@ -1981,10 +2021,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
@@ -1992,10 +2032,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1">
@@ -2003,10 +2043,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1">
@@ -2014,10 +2054,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1">
@@ -2025,10 +2065,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1">
@@ -2036,10 +2076,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1">
@@ -2047,10 +2087,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
@@ -2058,10 +2098,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
@@ -2069,10 +2109,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
@@ -2080,10 +2120,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
@@ -2091,10 +2131,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
@@ -2102,10 +2142,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
@@ -2113,10 +2153,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
@@ -2124,10 +2164,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1">
@@ -2135,10 +2175,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1">
@@ -2146,10 +2186,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1">
@@ -2157,10 +2197,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1">
@@ -2168,10 +2208,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1">
@@ -2179,10 +2219,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1">
@@ -2190,10 +2230,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1">
@@ -2201,10 +2241,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1">
@@ -2212,10 +2252,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>168</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1">
@@ -2223,10 +2263,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1">
@@ -2234,10 +2274,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1">
@@ -2245,10 +2285,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1">
@@ -2256,10 +2296,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1">
@@ -2267,10 +2307,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15.75" customHeight="1">
@@ -2278,10 +2318,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15.75" customHeight="1">
@@ -2289,10 +2329,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="15.75" customHeight="1">
@@ -2300,10 +2340,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="15.75" customHeight="1">
@@ -2311,10 +2351,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" customHeight="1">
@@ -2322,10 +2362,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="15.75" customHeight="1">
@@ -2333,10 +2373,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="15.75" customHeight="1">
@@ -2344,10 +2384,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1">
@@ -2355,10 +2395,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="15.75" customHeight="1">
@@ -2366,10 +2406,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="15.75" customHeight="1">
@@ -2377,10 +2417,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="15.75" customHeight="1">
@@ -2388,10 +2428,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="15.75" customHeight="1">
@@ -2399,10 +2439,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>155</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="15.75" customHeight="1">
@@ -2410,7 +2450,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="15.75" customHeight="1">
@@ -2418,7 +2458,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15.75" customHeight="1"/>

--- a/FengTienPro/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
+++ b/FengTienPro/Assets/Resources/ExcelFiles/MultiLanguage.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Elliot\FengTienPro\FengTienVR\FengTienPro\Assets\Resources\ExcelFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Git\FengTienVR\FengTienPro\Assets\Resources\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3EC1D2-78EC-445C-BBB6-7DDE45A0D8A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA8C4C6-ECDE-4F9D-BB4E-5785D234F69A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="muitiLang" sheetId="1" r:id="rId1"/>
     <sheet name="trainFeed" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7misnM0AErddeftIyv5/AZ7yUnQmKQ=="/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="300">
   <si>
     <t>id</t>
   </si>
@@ -757,6 +757,2383 @@
   </si>
   <si>
     <t>hint_text</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>goal_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TalkCanv</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_CheckNasogastricTube</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_TissueClean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>詢問爺爺口味</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>詢問爺爺口味</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_Watch</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_Tap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_Soap</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_WashHandCanv</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_TapClean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_Tissue</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_WashObj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_CutFish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_CutVeg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_InputRice</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_InputWater</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_InputFish</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_InputVeg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_InputSalt</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_CookFood</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_TasteFood</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_PutOnBib</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_TakeBowl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_GetTemper</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_TakeSpoon</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_FeedFood</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_FeedWater</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_WashStuff</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_ThrowWaste</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_CleanDesk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_MedsTalk</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_GrindMeds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_MixWater</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_FeedMeds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_FinishFeedMeds</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>goal_WaterClean</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>脫手表</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>脫手表</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沾濕雙手</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>沾濕雙手</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按壓洗手乳</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>按壓洗手乳</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手步驟</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手步驟</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗去泡泡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗去泡泡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>衛生紙</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗手</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>衛生紙</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廚房物品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>廚房物品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>切魚</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>切魚</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>切菜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>切菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入米飯</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入米飯</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倒入水</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倒入水</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入魚肉</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入魚肉</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入青菜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入青菜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入鹽</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>放入鹽</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適當的時間</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>適當的時間</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>品嘗食物</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>煮飯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>品嘗食物</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圍上圍兜兜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>圍上圍兜兜</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿起粥</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿起粥</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測量粥的溫度</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測量粥的溫度</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿起湯匙</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>拿起湯匙</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食與談話</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食與談話</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>漱口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵食</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>漱口</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清潔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗廚房用品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清潔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗廚房用品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清潔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倒掉廚餘</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清潔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倒掉廚餘</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清潔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>擦桌子</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清潔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>擦桌子</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>談話</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>談話</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>磨藥</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>磨藥</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混和水</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>混和水</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認鼻胃管在胃裡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認鼻胃管在胃裡</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倒入藥品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>倒入藥品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成餵藥</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>餵藥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>完成餵藥</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>擦拭藥物用品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>擦拭藥物用品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗藥物用品</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(en)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>清洗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>洗藥物用品</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -764,7 +3141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -829,6 +3206,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -850,7 +3233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -866,6 +3249,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1083,8 +3467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1"/>
@@ -1612,55 +3996,397 @@
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A48" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A49" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A50" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A51" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A52" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A53" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A54" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A55" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A56" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A57" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A58" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A59" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A60" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A61" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A62" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A63" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A64" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A65" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A66" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A67" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A68" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A69" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A70" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A71" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A72" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A73" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A74" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A75" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A76" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A77" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A78" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>292</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A79" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A80" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A81" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="83" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A83" s="11"/>
+    </row>
+    <row r="84" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="85" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="88" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="89" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="90" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="91" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="92" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="93" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="94" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1"/>
+    <row r="96" spans="1:3" ht="15.75" customHeight="1"/>
     <row r="97" ht="15.75" customHeight="1"/>
     <row r="98" ht="15.75" customHeight="1"/>
     <row r="99" ht="15.75" customHeight="1"/>
